--- a/URLS.xlsx
+++ b/URLS.xlsx
@@ -24,27 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>URLS</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/robin-dean-b04b0987/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shawndra-hall-a63b1785/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/dulce-hernandez-605563164/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/darian-moyers-70990145/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/theericgu/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jonathan-galea-5421419a/</t>
   </si>
 </sst>
 </file>
@@ -373,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A7" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,39 +372,9 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>